--- a/graph_generation/results/hermes_llama2/level_9/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_9/k_1.xlsx
@@ -26,6 +26,142 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J K L M
+ A 0 0 1 0 0 1 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 1 0
+ C 1 0 0 1 1 0 1 0 0 0 0 1 0
+ D 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 1 0
+ F 1 0 0 1 1 0 0 0 1 0 0 1 0
+ G 0 0 1 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 0 0 0 0 0 1 0 1 0 0
+ I 0 1 0 0 0 1 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 1
+ L 0 1 1 0 1 1 1 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 1 1 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 1 0 1 0 0 0 0 1
+ B 0 0 1 1 1 1 0 0 0 1
+ C 1 1 0 1 0 0 1 0 0 0
+ D 0 1 1 0 1 1 1 0 0 0
+ E 1 1 0 1 0 0 1 1 0 0
+ F 0 1 0 1 0 0 0 0 1 1
+ G 0 0 1 1 1 0 0 0 1 0
+ H 0 0 0 0 1 0 0 0 0 1
+ I 0 0 0 0 0 1 1 0 0 0
+ J 1 1 0 0 0 1 0 1 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J K L M
+ A 0 0 1 0 0 1 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 1 0
+ C 1 0 0 1 1 0 1 0 0 0 0 1 0
+ D 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 1 0
+ F 1 0 0 1 1 0 0 0 1 0 0 1 0
+ G 0 0 1 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 0 0 0 0 0 1 0 1 0 0
+ I 0 1 0 0 0 1 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 1
+ L 0 1 1 0 1 1 1 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 1 1 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 0 0 1 1 1 0 0 0
+ B 0 0 0 0 0 1 0 1 0 1
+ C 0 0 0 0 0 1 0 0 0 1
+ D 0 0 0 0 0 0 1 0 0 1
+ E 1 0 0 0 0 1 1 0 0 0
+ F 1 1 1 0 1 0 1 0 0 0
+ G 1 0 0 1 1 1 0 1 1 1
+ H 0 1 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 1 1 0 0
+ J 0 1 1 1 0 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J K L M
+ A 0 0 1 0 0 1 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 1 0
+ C 1 0 0 1 1 0 1 0 0 0 0 1 0
+ D 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 1 0
+ F 1 0 0 1 1 0 0 0 1 0 0 1 0
+ G 0 0 1 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 0 0 0 0 0 1 0 1 0 0
+ I 0 1 0 0 0 1 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 1
+ L 0 1 1 0 1 1 1 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 1 1 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 0 1 0 0 0 0 0 1
+ B 1 0 1 0 0 0 0 0 0 0
+ C 0 1 0 1 0 1 0 0 0 0
+ D 1 0 1 0 1 0 0 1 0 0
+ E 0 0 0 1 0 1 1 0 1 0
+ F 0 0 1 0 1 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0
+ H 0 0 0 1 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1
+ J 1 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J K L M
+ A 0 0 1 0 0 1 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 1 0
+ C 1 0 0 1 1 0 1 0 0 0 0 1 0
+ D 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 1 0
+ F 1 0 0 1 1 0 0 0 1 0 0 1 0
+ G 0 0 1 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 0 0 0 0 0 1 0 1 0 0
+ I 0 1 0 0 0 1 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 1
+ L 0 1 1 0 1 1 1 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 1 1 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 1 0 1 1 0 0 0 1
+ B 0 0 0 1 0 1 0 1 0 0
+ C 1 0 0 1 0 1 1 0 0 0
+ D 0 1 1 0 0 0 1 1 0 0
+ E 1 0 0 0 0 0 0 1 1 0
+ F 1 1 1 0 0 0 0 1 0 0
+ G 0 0 1 1 0 0 0 1 0 0
+ H 0 1 0 1 1 1 1 0 1 0
+ I 0 0 0 0 1 0 0 1 0 0
+ J 1 0 0 0 0 0 0 0 0 0
+    </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -49,16 +185,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from 3? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 0 0 1 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 1 1 0 0
- E 0 1 0 1 0 1 0 1 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 1 0 1 0 0 0 0
- H 0 1 0 1 1 0 0 0 1 0
- I 0 0 0 0 0 0 0 1 0 1
- J 0 0 0 0 0 0 0 0 1 0
+ A 0 1 0 0 1 0 1 0 0 0
+ B 1 0 1 0 1 1 1 1 0 0
+ C 0 1 0 1 1 1 1 0 0 1
+ D 0 0 1 0 1 0 0 0 0 0
+ E 1 1 1 1 0 1 1 0 0 0
+ F 0 1 1 0 1 0 1 0 0 0
+ G 1 1 1 0 1 1 0 1 1 0
+ H 0 1 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1
+ J 0 0 1 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -83,152 +219,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 0 0 1 0 0 0 0 0 1
- B 0 0 0 0 0 0 0 1 0 0
- C 0 0 0 1 0 0 0 1 1 0
- D 1 0 1 0 1 0 0 1 1 1
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 0 1 1 1
- G 0 0 0 0 0 0 0 0 1 0
- H 0 1 1 1 0 1 0 0 1 1
- I 0 0 1 1 0 1 1 1 0 1
- J 1 0 0 1 0 1 0 1 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J K L M
- A 0 0 1 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 1 0
- C 1 0 0 1 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 0 1 0
- F 1 0 0 1 1 0 0 0 1 0 0 1 0
- G 0 0 1 0 1 0 0 0 0 0 0 1 0
- H 1 0 0 0 0 0 0 0 1 0 1 0 0
- I 0 1 0 0 0 1 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 1 1 0 1 1 1 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 1 1 0
-Solution: This is not a valid eulerian graph
- Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 1 1 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 1
- C 0 1 0 1 1 0 0 0 1 0
- D 0 0 1 0 1 0 0 1 0 1
- E 1 0 1 1 0 1 1 1 0 0
- F 1 1 0 0 1 0 1 1 1 0
- G 0 0 0 0 1 1 0 0 0 0
- H 0 0 0 1 1 1 0 0 1 0
- I 0 0 1 0 0 1 0 1 0 0
- J 0 1 0 1 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J K L M
- A 0 0 1 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 1 0
- C 1 0 0 1 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 0 1 0
- F 1 0 0 1 1 0 0 0 1 0 0 1 0
- G 0 0 1 0 1 0 0 0 0 0 0 1 0
- H 1 0 0 0 0 0 0 0 1 0 1 0 0
- I 0 1 0 0 0 1 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 1 1 0 1 1 1 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 1 1 0
-Solution: This is not a valid eulerian graph
- Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 3? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 1 0 1 0 1 1
- B 1 0 1 0 0 0 1 0 1 0
- C 0 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 1 0 0 0 0 0
- E 1 0 0 1 0 1 0 0 1 0
- F 0 0 0 0 1 0 1 0 0 0
- G 1 1 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 1 0
- I 1 1 1 0 1 0 0 1 0 1
- J 1 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J K L M
- A 0 0 1 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 1 0
- C 1 0 0 1 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 0 1 0
- F 1 0 0 1 1 0 0 0 1 0 0 1 0
- G 0 0 1 0 1 0 0 0 0 0 0 1 0
- H 1 0 0 0 0 0 0 0 1 0 1 0 0
- I 0 1 0 0 0 1 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 1 1 0 1 1 1 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 1 1 0
-Solution: This is not a valid eulerian graph
- Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 3? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 1 0 0 1 0 0 0
- B 1 0 1 0 0 1 1 0 0 0
- C 0 1 0 1 0 0 1 0 0 1
- D 1 0 1 0 1 0 0 0 1 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 1 0 0 1 0 1 1 0 0
- G 1 1 1 0 0 1 0 1 0 0
- H 0 0 0 0 0 1 1 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
- J 0 0 1 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J K L M
- A 0 0 1 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 1 0
- C 1 0 0 1 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 0 1 0
- F 1 0 0 1 1 0 0 0 1 0 0 1 0
- G 0 0 1 0 1 0 0 0 0 0 0 1 0
- H 1 0 0 0 0 0 0 0 1 0 1 0 0
- I 0 1 0 0 0 1 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 1 1 0 1 1 1 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 1 1 0
-Solution: This is not a valid eulerian graph
- Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 1? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 0 0 1 0 1 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 1 1
- F 0 0 0 0 1 0 1 0 0 0
- G 1 0 0 0 0 1 0 1 1 0
- H 0 0 0 0 0 0 1 0 1 0
- I 1 0 0 0 1 0 1 1 0 0
- J 0 0 0 0 1 0 0 0 0 0
+ A 0 0 0 1 0 0 1 0 1 0
+ B 0 0 0 1 0 0 0 0 1 0
+ C 0 0 0 1 0 0 0 0 0 0
+ D 1 1 1 0 1 0 1 1 0 1
+ E 0 0 0 1 0 0 0 0 0 1
+ F 0 0 0 0 0 0 1 0 0 1
+ G 1 0 0 1 0 1 0 1 0 0
+ H 0 0 0 1 0 0 1 0 1 0
+ I 1 1 0 0 0 0 0 1 0 0
+ J 0 0 0 1 1 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -253,50 +253,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 0 1 0 1 0 0 1 0 0
- B 0 0 0 1 1 0 0 0 1 0
- C 1 0 0 0 0 1 0 1 0 0
- D 0 1 0 0 1 0 0 0 1 0
- E 1 1 0 1 0 0 0 0 1 0
- F 0 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0
- H 1 0 1 0 0 0 1 0 0 1
- I 0 1 0 1 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
-   A B C D E F G H I J K L M
- A 0 0 1 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 1 0
- C 1 0 0 1 1 0 1 0 0 0 0 1 0
- D 0 0 1 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 1 0 0 0 0 1 0
- F 1 0 0 1 1 0 0 0 1 0 0 1 0
- G 0 0 1 0 1 0 0 0 0 0 0 1 0
- H 1 0 0 0 0 0 0 0 1 0 1 0 0
- I 0 1 0 0 0 1 0 1 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 1 1 0 1 1 1 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 1 1 0
-Solution: This is not a valid eulerian graph
- Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 2? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 1 0 0 1 0 0 0
- B 1 0 1 1 0 0 0 1 1 1
- C 0 1 0 1 0 0 0 0 0 0
- D 1 1 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 1 1 0 0
- F 0 0 0 0 1 0 1 1 1 0
- G 1 0 0 0 1 1 0 1 0 0
- H 0 1 0 0 1 1 1 0 1 1
- I 0 1 0 0 0 1 0 1 0 0
- J 0 1 0 0 0 0 0 1 0 0
+ A 0 0 0 1 1 0 0 0 0 1
+ B 0 0 0 1 0 0 1 1 0 0
+ C 0 0 0 0 1 1 0 0 0 0
+ D 1 1 0 0 0 0 1 0 0 0
+ E 1 0 1 0 0 0 1 0 1 0
+ F 0 0 1 0 0 0 0 1 0 0
+ G 0 1 0 1 1 0 0 0 0 1
+ H 0 1 0 0 0 1 0 0 0 1
+ I 0 0 0 0 1 0 0 0 0 1
+ J 1 0 0 0 0 0 1 1 1 0
     </t>
   </si>
   <si>
@@ -321,16 +287,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 0 0 0 1 0 0 0
- B 1 0 1 1 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 1
- D 0 1 1 0 1 0 0 0 0 1
- E 0 0 0 1 0 0 1 0 0 0
- F 0 0 0 0 0 0 0 1 0 0
- G 1 0 0 0 1 0 0 0 1 0
- H 0 0 0 0 0 1 0 0 0 1
- I 0 0 0 0 0 0 1 0 0 0
- J 0 0 1 1 0 0 0 1 0 0
+ A 0 0 0 1 0 1 0 0 1 0
+ B 0 0 0 0 0 0 1 0 1 0
+ C 0 0 0 0 1 0 0 0 1 0
+ D 1 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 1 0 0
+ G 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 1 1
+ I 1 1 1 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 1 1 0
     </t>
   </si>
   <si>
@@ -353,34 +319,68 @@
  M 0 0 0 0 0 0 0 0 1 0 1 1 0
 Solution: This is not a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 1 1 1 0 0 1 0
- B 1 0 1 0 0 1 0 1 0 0
- C 0 1 0 1 0 0 1 0 0 1
- D 1 0 1 0 1 0 0 0 0 1
- E 1 0 0 1 0 1 0 1 0 0
- F 1 1 0 0 1 0 1 0 0 0
- G 0 0 1 0 0 1 0 0 0 0
- H 0 1 0 0 1 0 0 0 1 0
- I 1 0 0 0 0 0 0 1 0 0
- J 0 0 1 1 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 1 1 0
+ B 0 0 1 1 0 0 1 0 1 0
+ C 0 1 0 0 0 1 0 0 0 0
+ D 0 1 0 0 0 0 0 1 0 0
+ E 0 0 0 0 0 1 0 0 0 0
+ F 0 0 1 0 1 0 0 0 0 1
+ G 0 1 0 0 0 0 0 0 0 0
+ H 1 0 0 1 0 0 0 0 0 0
+ I 1 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J K L M
+ A 0 0 1 0 0 1 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 1 0
+ C 1 0 0 1 1 0 1 0 0 0 0 1 0
+ D 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 1 0
+ F 1 0 0 1 1 0 0 0 1 0 0 1 0
+ G 0 0 1 0 1 0 0 0 0 0 0 1 0
+ H 1 0 0 0 0 0 0 0 1 0 1 0 0
+ I 0 1 0 0 0 1 0 1 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 1
+ L 0 1 1 0 1 1 1 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 1 1 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 1 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 1 0 0 0
+ C 1 1 0 0 0 1 0 1 0 0
+ D 0 0 0 0 0 0 1 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0
+ F 0 0 1 0 1 0 0 0 0 0
+ G 0 1 0 1 0 0 0 1 1 0
+ H 0 0 1 0 0 0 1 0 0 1
+ I 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0
+    </t>
+  </si>
+  <si>
+    <t>This is not a valid eulerian graph</t>
+  </si>
+  <si>
     <t>This is a valid eulerian graph</t>
   </si>
   <si>
-    <t>This is not a valid eulerian graph</t>
-  </si>
-  <si>
     <t>This is not a valid eulerian graph.</t>
   </si>
   <si>
+    <t>Correct</t>
+  </si>
+  <si>
     <t>Wrong</t>
-  </si>
-  <si>
-    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -777,13 +777,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -791,13 +791,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -847,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -875,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
